--- a/dog snps.xlsx
+++ b/dog snps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliajones/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliajones/Desktop/FA21/BIMM143/LCORL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3829CD4-B6ED-1549-AAC3-1CAD4978E1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791327A9-EFBE-8E4A-BB50-C453DEF2320C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="500" windowWidth="26220" windowHeight="16400" xr2:uid="{6446846C-F3F8-A84A-961B-A682F56D7684}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dog snps.xlsx
+++ b/dog snps.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliajones/Desktop/FA21/BIMM143/LCORL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791327A9-EFBE-8E4A-BB50-C453DEF2320C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A32E0D6-E8DF-2740-8834-1836471FD663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="500" windowWidth="26220" windowHeight="16400" xr2:uid="{6446846C-F3F8-A84A-961B-A682F56D7684}"/>
+    <workbookView xWindow="9820" yWindow="500" windowWidth="18980" windowHeight="16400" activeTab="1" xr2:uid="{6446846C-F3F8-A84A-961B-A682F56D7684}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SNP" sheetId="1" r:id="rId1"/>
+    <sheet name="LCORL" sheetId="4" r:id="rId2"/>
+    <sheet name="IGF1" sheetId="2" r:id="rId3"/>
+    <sheet name="SMAD2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="50">
   <si>
     <t>igf1</t>
   </si>
@@ -80,13 +83,118 @@
   </si>
   <si>
     <t>Boxer</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>Breed</t>
+  </si>
+  <si>
+    <t>IGF1</t>
+  </si>
+  <si>
+    <t>Yorkshire Terrier</t>
+  </si>
+  <si>
+    <t>Maltese</t>
+  </si>
+  <si>
+    <t>Papillon</t>
+  </si>
+  <si>
+    <t>Bichon Frisé</t>
+  </si>
+  <si>
+    <t>Miniature Pinscher</t>
+  </si>
+  <si>
+    <t>Cavalier King Charles Spaniel</t>
+  </si>
+  <si>
+    <t>Pug</t>
+  </si>
+  <si>
+    <t>Boston Terrier</t>
+  </si>
+  <si>
+    <t>Beagle</t>
+  </si>
+  <si>
+    <t>French Bulldog</t>
+  </si>
+  <si>
+    <t>Pembroke Welsh Corgi</t>
+  </si>
+  <si>
+    <t>Whippet</t>
+  </si>
+  <si>
+    <t>Kerry Blue Terrier</t>
+  </si>
+  <si>
+    <t>English Springer Spaniel</t>
+  </si>
+  <si>
+    <t>Labrador Retriever</t>
+  </si>
+  <si>
+    <t>Golden Retriever</t>
+  </si>
+  <si>
+    <t>Weimaraner</t>
+  </si>
+  <si>
+    <t>German Shepherd Dog</t>
+  </si>
+  <si>
+    <t>Rottweiler</t>
+  </si>
+  <si>
+    <t>Irish Wolfhound</t>
+  </si>
+  <si>
+    <t>norm_exp</t>
+  </si>
+  <si>
+    <t>exp_sem</t>
+  </si>
+  <si>
+    <t>weight_kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size </t>
+  </si>
+  <si>
+    <t>xs</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>xl</t>
+  </si>
+  <si>
+    <t>SMAD2</t>
+  </si>
+  <si>
+    <t>LCORLsmall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,16 +202,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -111,12 +243,215 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D9125C-CB7F-D446-A30B-3BD1E9F0CA57}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -544,4 +879,1350 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434540BB-F688-764D-A5B3-017F5AC390B4}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="30" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="27">
+        <v>3.1751465900000002</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0.71736421298610054</v>
+      </c>
+      <c r="E2" s="29">
+        <v>4.3302061961355547E-2</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="28">
+        <v>1.60996400035141</v>
+      </c>
+      <c r="E3" s="29">
+        <v>0.1044344666913285</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="27">
+        <v>3.8555351450000002</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1.64940479053478</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0.118561165644874</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="27">
+        <v>4</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2.6338208204101599</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.68125920395060202</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="27">
+        <v>4.0823313299999997</v>
+      </c>
+      <c r="D6" s="28">
+        <v>1.2502690235453899</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0.100052886387374</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="27">
+        <v>6.3502931800000004</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1.280247158193029</v>
+      </c>
+      <c r="E7" s="29">
+        <v>5.6018456228156849E-2</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="27">
+        <v>7.2574779200000004</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.60531814301249698</v>
+      </c>
+      <c r="E8" s="29">
+        <v>2.3285451331611501E-2</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="27">
+        <v>9.0718474000000011</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1</v>
+      </c>
+      <c r="E9" s="29">
+        <v>2.6349489024329702E-2</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="27">
+        <v>10.205828325000001</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.68011109046401996</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1.9160969532804301E-2</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="27">
+        <v>11.33980925</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1.06717230373401</v>
+      </c>
+      <c r="E11" s="29">
+        <v>5.56603561741029E-2</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="27">
+        <v>11.793401620000001</v>
+      </c>
+      <c r="D12" s="28">
+        <v>1.8476731137856599</v>
+      </c>
+      <c r="E12" s="29">
+        <v>6.8569989798754602E-2</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="27">
+        <v>15.875732950000002</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0.32359000937125498</v>
+      </c>
+      <c r="E13" s="29">
+        <v>2.13290251269702E-2</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="27">
+        <v>16.556121505</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.56895435927430105</v>
+      </c>
+      <c r="E14" s="29">
+        <v>2.0056990115579602E-2</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="27">
+        <v>20.411656650000001</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0.51744969761573334</v>
+      </c>
+      <c r="E15" s="29">
+        <v>3.7084502672606601E-2</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="27">
+        <v>29.483504050000001</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0.38327585543514298</v>
+      </c>
+      <c r="E16" s="29">
+        <v>1.78262694239298E-2</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="27">
+        <v>30.617484975</v>
+      </c>
+      <c r="D17" s="28">
+        <v>1.3113749769540344</v>
+      </c>
+      <c r="E17" s="29">
+        <v>5.0856088782611136E-2</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="27">
+        <v>32.5</v>
+      </c>
+      <c r="D18" s="28">
+        <v>1.46943717535491</v>
+      </c>
+      <c r="E18" s="29">
+        <v>8.6019781655529398E-2</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="27">
+        <v>38.555351450000003</v>
+      </c>
+      <c r="D19" s="28">
+        <v>0.95598411806921602</v>
+      </c>
+      <c r="E19" s="29">
+        <v>6.7524998644947043E-2</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="27">
+        <v>45.359237</v>
+      </c>
+      <c r="D20" s="28">
+        <v>1.16746442784766</v>
+      </c>
+      <c r="E20" s="29">
+        <v>7.0623840848346997E-2</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="27">
+        <v>51.029141625000008</v>
+      </c>
+      <c r="D21" s="28">
+        <v>1.4829504259367201</v>
+      </c>
+      <c r="E21" s="29">
+        <v>9.3155314841064096E-2</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CAFCFA-1EC7-DD47-88D8-31DA3AD2CA0D}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3.1751465900000002</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.99824042078315811</v>
+      </c>
+      <c r="E2" s="7">
+        <v>6.1902468441783542E-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.0524972594362949</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.17161884151327908</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.8555351450000002</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.51469191298277295</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2.5386481585386499E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.74866984629677402</v>
+      </c>
+      <c r="E5" s="7">
+        <v>7.0815629725575605E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.0823313299999997</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.28543618553648098</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3.1294282868737602E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6.3502931800000004</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.31792055247469952</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.7869170839519E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7.2574779200000004</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.71844967594763798</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.8364681642347099E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5">
+        <v>9.0718474000000011</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.22596703322898301</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2.0210893732050299E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10.205828325000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.235028363056214</v>
+      </c>
+      <c r="E10" s="7">
+        <v>8.9231284023765997E-3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5">
+        <v>11.33980925</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.72788683527650899</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4.2714814928447899E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5">
+        <v>11.793401620000001</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2.29215383754324</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.11445149449997701</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5">
+        <v>15.875732950000002</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2.2912934478396201</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.210298443991003</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5">
+        <v>16.556121505</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.31866103524853601</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.8040287377520701E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5">
+        <v>20.411656650000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2.7004251844418121</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.11886786299231934</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5">
+        <v>29.483504050000001</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2.7768047601901702</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.180983378710974</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5">
+        <v>30.617484975</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.80342495763860367</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5.0242326513382563E-2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1.4102012607785199</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.9476009381081897E-2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5">
+        <v>38.555351450000003</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.81704177029778802</v>
+      </c>
+      <c r="E19" s="7">
+        <v>5.9872660482338746E-2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45.359237</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.83072340118934596</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3.73853985724922E-2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="10">
+        <v>51.029141625000008</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1.2584975529934099</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.115017456183404</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF09530-E19A-6342-B76C-57B540739046}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="16">
+        <v>3.1751465900000002</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1.6683286557340455</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.11268385213760485</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.520794646613425</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.16209700143170402</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.8555351450000002</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.23551591688172</v>
+      </c>
+      <c r="E4" s="7">
+        <v>9.8705139557011295E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.9541828746943599</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.50330079607545297</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.0823313299999997</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.97861571262791203</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8.9755112217806396E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6.3502931800000004</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1.6113071306411699</v>
+      </c>
+      <c r="E7" s="7">
+        <v>7.0543371447865655E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7.2574779200000004</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.873510680322508</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3.1791143109387202E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5">
+        <v>9.0718474000000011</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5.3415638486093098E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10.205828325000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.640889148208173</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2.7113533620168499E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5">
+        <v>11.33980925</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.18534873984756</v>
+      </c>
+      <c r="E11" s="7">
+        <v>8.6397610037951503E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5">
+        <v>11.793401620000001</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.34996334347052</v>
+      </c>
+      <c r="E12" s="7">
+        <v>7.8426599283732398E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5">
+        <v>15.875732950000002</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.97024379824360496</v>
+      </c>
+      <c r="E13" s="7">
+        <v>6.3361812292639194E-2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5">
+        <v>16.556121505</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.82519290876261397</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3.7950668100221303E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5">
+        <v>20.411656650000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1.6461952602419898</v>
+      </c>
+      <c r="E15" s="7">
+        <v>8.8175184729397602E-2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5">
+        <v>29.483504050000001</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1.4241431520307199</v>
+      </c>
+      <c r="E16" s="7">
+        <v>5.9429831292725901E-2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5">
+        <v>30.617484975</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2.4338453818654098</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.1482727630502669</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1.56770561954151</v>
+      </c>
+      <c r="E18" s="7">
+        <v>9.1962252729514402E-2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5">
+        <v>38.555351450000003</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1.0666080797878741</v>
+      </c>
+      <c r="E19" s="7">
+        <v>7.2442440371652247E-2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45.359237</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.91099561809005203</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.13556380467708101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="21">
+        <v>51.029141625000008</v>
+      </c>
+      <c r="D21" s="22">
+        <v>1.4260511940115601</v>
+      </c>
+      <c r="E21" s="23">
+        <v>8.1864058594453795E-2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dog snps.xlsx
+++ b/dog snps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliajones/Desktop/FA21/BIMM143/LCORL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A32E0D6-E8DF-2740-8834-1836471FD663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A02905-81C1-0144-9240-F4336B9C84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9820" yWindow="500" windowWidth="18980" windowHeight="16400" activeTab="1" xr2:uid="{6446846C-F3F8-A84A-961B-A682F56D7684}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="51">
   <si>
     <t>igf1</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>LCORLsmall</t>
+  </si>
+  <si>
+    <t>LCORLlong</t>
   </si>
 </sst>
 </file>
@@ -883,10 +886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434540BB-F688-764D-A5B3-017F5AC390B4}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1291,7 +1294,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="30" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>49</v>
       </c>
@@ -1311,7 +1314,406 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="16">
+        <v>3.1751465900000002</v>
+      </c>
+      <c r="D22" s="17">
+        <v>1.0405459639612109</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0.10154505137396146</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2.5347711998825098</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.201237844613259</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3.8555351450000002</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1.39213054916996</v>
+      </c>
+      <c r="E24" s="7">
+        <v>9.7356310507936902E-2</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2.1089843728728899</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.53918905336340905</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5">
+        <v>4.0823313299999997</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.90677777689750405</v>
+      </c>
+      <c r="E26" s="7">
+        <v>6.9928842475153699E-2</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="5">
+        <v>6.3502931800000004</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1.7759710403694502</v>
+      </c>
+      <c r="E27" s="7">
+        <v>6.8956117936842698E-2</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="5">
+        <v>7.2574779200000004</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.70560367388239498</v>
+      </c>
+      <c r="E28" s="7">
+        <v>7.8816725597635306E-2</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="5">
+        <v>9.0718474000000011</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2.15990596796884E-2</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="5">
+        <v>10.205828325000001</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.51199106156986496</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2.83009692455574E-2</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="5">
+        <v>11.33980925</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.68625126762945399</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.46814982388609999</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="5">
+        <v>11.793401620000001</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1.5033559053680401</v>
+      </c>
+      <c r="E32" s="7">
+        <v>5.9242567894099402E-2</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="5">
+        <v>15.875732950000002</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.30310996379654898</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2.0079123822204701E-2</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="5">
+        <v>16.556121505</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.66534709861865204</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2.0714470663539999E-2</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="5">
+        <v>20.411656650000001</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.71316253992441703</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2.1357198038457249E-2</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="5">
+        <v>29.483504050000001</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.57033164040378903</v>
+      </c>
+      <c r="E36" s="7">
+        <v>2.8259462634119499E-2</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="5">
+        <v>30.617484975</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1.1076219780267742</v>
+      </c>
+      <c r="E37" s="7">
+        <v>6.8189009201506834E-2</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1.04941471871831</v>
+      </c>
+      <c r="E38" s="7">
+        <v>6.2584362463662196E-2</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="5">
+        <v>38.555351450000003</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.59150808733426197</v>
+      </c>
+      <c r="E39" s="7">
+        <v>5.0452690746540248E-2</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="5">
+        <v>45.359237</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.70938179203662199</v>
+      </c>
+      <c r="E40" s="7">
+        <v>4.8755837598216202E-2</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="21">
+        <v>51.029141625000008</v>
+      </c>
+      <c r="D41" s="22">
+        <v>1.3060149532140299</v>
+      </c>
+      <c r="E41" s="23">
+        <v>0.11111586217703399</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dog snps.xlsx
+++ b/dog snps.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliajones/Desktop/FA21/BIMM143/LCORL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A02905-81C1-0144-9240-F4336B9C84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5EE536-1398-844F-9255-0105B06CBA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9820" yWindow="500" windowWidth="18980" windowHeight="16400" activeTab="1" xr2:uid="{6446846C-F3F8-A84A-961B-A682F56D7684}"/>
   </bookViews>
   <sheets>
     <sheet name="SNP" sheetId="1" r:id="rId1"/>
     <sheet name="LCORL" sheetId="4" r:id="rId2"/>
-    <sheet name="IGF1" sheetId="2" r:id="rId3"/>
-    <sheet name="SMAD2" sheetId="3" r:id="rId4"/>
+    <sheet name="clustering" sheetId="5" r:id="rId3"/>
+    <sheet name="scatter" sheetId="6" r:id="rId4"/>
+    <sheet name="IGF1" sheetId="2" r:id="rId5"/>
+    <sheet name="SMAD2" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="74">
   <si>
     <t>igf1</t>
   </si>
@@ -188,6 +190,75 @@
   </si>
   <si>
     <t>LCORLlong</t>
+  </si>
+  <si>
+    <t>LCORLsmall_exp</t>
+  </si>
+  <si>
+    <t>IGF1_exp</t>
+  </si>
+  <si>
+    <t>LCORLlong_exp</t>
+  </si>
+  <si>
+    <t>Pug (s)</t>
+  </si>
+  <si>
+    <t>Boston Terrier (s)</t>
+  </si>
+  <si>
+    <t>Beagle (s)</t>
+  </si>
+  <si>
+    <t>French Bulldog (s)</t>
+  </si>
+  <si>
+    <t>Pembroke Welsh Corgi (s)</t>
+  </si>
+  <si>
+    <t>Whippet (m)</t>
+  </si>
+  <si>
+    <t>Kerry Blue Terrier (m)</t>
+  </si>
+  <si>
+    <t>English Springer Spaniel (m)</t>
+  </si>
+  <si>
+    <t>Labrador Retriever (l)</t>
+  </si>
+  <si>
+    <t>Golden Retriever (l)</t>
+  </si>
+  <si>
+    <t>Weimaraner (l)</t>
+  </si>
+  <si>
+    <t>German Shepherd (l)</t>
+  </si>
+  <si>
+    <t>Rottweiler (l)</t>
+  </si>
+  <si>
+    <t>Irish Wolfhound (l)</t>
+  </si>
+  <si>
+    <t>Yorkshire Terrier (xs)</t>
+  </si>
+  <si>
+    <t>Maltese (xs)</t>
+  </si>
+  <si>
+    <t>Papillon (xs)</t>
+  </si>
+  <si>
+    <t>Bichon Frisé (s)</t>
+  </si>
+  <si>
+    <t>Miniature Pinscher (xs)</t>
+  </si>
+  <si>
+    <t>Cavalier King Charles Spaniel (s)</t>
   </si>
 </sst>
 </file>
@@ -888,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434540BB-F688-764D-A5B3-017F5AC390B4}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1720,11 +1791,1189 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E713D6E0-8C04-3E44-938F-42757E694154}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0.71736421298610054</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1.0405459639612109</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.99824042078315811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="28">
+        <v>1.60996400035141</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2.5347711998825098</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.0524972594362949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="28">
+        <v>1.64940479053478</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.39213054916996</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.51469191298277295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="28">
+        <v>2.6338208204101599</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.1089843728728899</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.74866984629677402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="28">
+        <v>1.2502690235453899</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.90677777689750405</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.28543618553648098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="28">
+        <v>1.280247158193029</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.7759710403694502</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.31792055247469952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0.60531814301249698</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.70560367388239498</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.71844967594763798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.22596703322898301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0.68011109046401996</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.51199106156986496</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.235028363056214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="28">
+        <v>1.06717230373401</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.68625126762945399</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.72788683527650899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="28">
+        <v>1.8476731137856599</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.5033559053680401</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2.29215383754324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0.32359000937125498</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.30310996379654898</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2.2912934478396201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0.56895435927430105</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.66534709861865204</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.31866103524853601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0.51744969761573334</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.71316253992441703</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2.7004251844418121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="28">
+        <v>0.38327585543514298</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.57033164040378903</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2.7768047601901702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="28">
+        <v>1.3113749769540344</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1.1076219780267742</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.80342495763860367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="28">
+        <v>1.46943717535491</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1.04941471871831</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1.4102012607785199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="28">
+        <v>0.95598411806921602</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.59150808733426197</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.81704177029778802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="28">
+        <v>1.16746442784766</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.70938179203662199</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.83072340118934596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="28">
+        <v>1.4829504259367201</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1.3060149532140299</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1.2584975529934099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0BEDDB-AA09-7048-82E8-347DBB702665}">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0.71736421298610054</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="16">
+        <v>3.1751465900000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="28">
+        <v>1.60996400035141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="28">
+        <v>1.64940479053478</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3.8555351450000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="28">
+        <v>2.6338208204101599</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="28">
+        <v>1.2502690235453899</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.0823313299999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="28">
+        <v>1.280247158193029</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6.3502931800000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0.60531814301249698</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7.2574779200000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5">
+        <v>9.0718474000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0.68011109046401996</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10.205828325000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="28">
+        <v>1.06717230373401</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5">
+        <v>11.33980925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="28">
+        <v>1.8476731137856599</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11.793401620000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0.32359000937125498</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5">
+        <v>15.875732950000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0.56895435927430105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5">
+        <v>16.556121505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0.51744969761573334</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5">
+        <v>20.411656650000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="28">
+        <v>0.38327585543514298</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="5">
+        <v>29.483504050000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="28">
+        <v>1.3113749769540344</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5">
+        <v>30.617484975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="28">
+        <v>1.46943717535491</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="28">
+        <v>0.95598411806921602</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="5">
+        <v>38.555351450000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="28">
+        <v>1.16746442784766</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5">
+        <v>45.359237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="28">
+        <v>1.4829504259367201</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="21">
+        <v>51.029141625000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1.0405459639612109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="16">
+        <v>3.1751465900000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2.5347711998825098</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1.39213054916996</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3.8555351450000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2.1089843728728899</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.90677777689750405</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4.0823313299999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1.7759710403694502</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="5">
+        <v>6.3502931800000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.70560367388239498</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7.2574779200000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="5">
+        <v>9.0718474000000011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.51199106156986496</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="5">
+        <v>10.205828325000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.68625126762945399</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="5">
+        <v>11.33980925</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1.5033559053680401</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="5">
+        <v>11.793401620000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0.30310996379654898</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="5">
+        <v>15.875732950000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0.66534709861865204</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="5">
+        <v>16.556121505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0.71316253992441703</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="5">
+        <v>20.411656650000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0.57033164040378903</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="5">
+        <v>29.483504050000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1.1076219780267742</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="5">
+        <v>30.617484975</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1.04941471871831</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="5">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.59150808733426197</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="5">
+        <v>38.555351450000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.70938179203662199</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="5">
+        <v>45.359237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="22">
+        <v>1.3060149532140299</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="21">
+        <v>51.029141625000008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0.99824042078315811</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="16">
+        <v>3.1751465900000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2.0524972594362949</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.51469191298277295</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="5">
+        <v>3.8555351450000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0.74866984629677402</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0.28543618553648098</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="5">
+        <v>4.0823313299999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0.31792055247469952</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="5">
+        <v>6.3502931800000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="6">
+        <v>0.71844967594763798</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="5">
+        <v>7.2574779200000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0.22596703322898301</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="5">
+        <v>9.0718474000000011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0.235028363056214</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="5">
+        <v>10.205828325000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="6">
+        <v>0.72788683527650899</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="5">
+        <v>11.33980925</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="6">
+        <v>2.29215383754324</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="5">
+        <v>11.793401620000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="6">
+        <v>2.2912934478396201</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="5">
+        <v>15.875732950000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="6">
+        <v>0.31866103524853601</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="5">
+        <v>16.556121505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="6">
+        <v>2.7004251844418121</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="5">
+        <v>20.411656650000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="6">
+        <v>2.7768047601901702</v>
+      </c>
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="5">
+        <v>29.483504050000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="6">
+        <v>0.80342495763860367</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="5">
+        <v>30.617484975</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="6">
+        <v>1.4102012607785199</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="5">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="6">
+        <v>0.81704177029778802</v>
+      </c>
+      <c r="C59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="5">
+        <v>38.555351450000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="6">
+        <v>0.83072340118934596</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="5">
+        <v>45.359237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="11">
+        <v>1.2584975529934099</v>
+      </c>
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="21">
+        <v>51.029141625000008</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CAFCFA-1EC7-DD47-88D8-31DA3AD2CA0D}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F2" sqref="F2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2154,12 +3403,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF09530-E19A-6342-B76C-57B540739046}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="C1" sqref="C1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dog snps.xlsx
+++ b/dog snps.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliajones/Desktop/FA21/BIMM143/LCORL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5EE536-1398-844F-9255-0105B06CBA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C626D8-EFBA-0D43-9154-9F0811DC4043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9820" yWindow="500" windowWidth="18980" windowHeight="16400" activeTab="1" xr2:uid="{6446846C-F3F8-A84A-961B-A682F56D7684}"/>
   </bookViews>
   <sheets>
     <sheet name="SNP" sheetId="1" r:id="rId1"/>
-    <sheet name="LCORL" sheetId="4" r:id="rId2"/>
-    <sheet name="clustering" sheetId="5" r:id="rId3"/>
-    <sheet name="scatter" sheetId="6" r:id="rId4"/>
-    <sheet name="IGF1" sheetId="2" r:id="rId5"/>
-    <sheet name="SMAD2" sheetId="3" r:id="rId6"/>
+    <sheet name="pie" sheetId="7" r:id="rId2"/>
+    <sheet name="LCORL" sheetId="4" r:id="rId3"/>
+    <sheet name="clustering" sheetId="5" r:id="rId4"/>
+    <sheet name="scatter" sheetId="6" r:id="rId5"/>
+    <sheet name="IGF1" sheetId="2" r:id="rId6"/>
+    <sheet name="SMAD2" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="75">
   <si>
     <t>igf1</t>
   </si>
@@ -259,6 +260,9 @@
   </si>
   <si>
     <t>Cavalier King Charles Spaniel (s)</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -843,7 +847,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -956,10 +960,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEDD088-87D2-CC46-807C-4EFA9FA05D81}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434540BB-F688-764D-A5B3-017F5AC390B4}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="115" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:F42"/>
     </sheetView>
   </sheetViews>
@@ -1790,7 +1864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E713D6E0-8C04-3E44-938F-42757E694154}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -2099,7 +2173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0BEDDB-AA09-7048-82E8-347DBB702665}">
   <dimension ref="A1:D61"/>
   <sheetViews>
@@ -2968,7 +3042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CAFCFA-1EC7-DD47-88D8-31DA3AD2CA0D}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -3403,7 +3477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF09530-E19A-6342-B76C-57B540739046}">
   <dimension ref="A1:H21"/>
   <sheetViews>

--- a/dog snps.xlsx
+++ b/dog snps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliajones/Desktop/FA21/BIMM143/LCORL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C626D8-EFBA-0D43-9154-9F0811DC4043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51859837-F593-B54E-B6B5-0C7B38CC0545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9820" yWindow="500" windowWidth="18980" windowHeight="16400" activeTab="1" xr2:uid="{6446846C-F3F8-A84A-961B-A682F56D7684}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="75">
   <si>
     <t>igf1</t>
   </si>
@@ -961,10 +961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEDD088-87D2-CC46-807C-4EFA9FA05D81}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -984,44 +984,52 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/dog snps.xlsx
+++ b/dog snps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliajones/Desktop/FA21/BIMM143/LCORL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51859837-F593-B54E-B6B5-0C7B38CC0545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF8A181-93F6-204A-ADCB-5B16577F857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="500" windowWidth="18980" windowHeight="16400" activeTab="1" xr2:uid="{6446846C-F3F8-A84A-961B-A682F56D7684}"/>
+    <workbookView xWindow="9820" yWindow="500" windowWidth="18980" windowHeight="16400" activeTab="2" xr2:uid="{6446846C-F3F8-A84A-961B-A682F56D7684}"/>
   </bookViews>
   <sheets>
     <sheet name="SNP" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="76">
   <si>
     <t>igf1</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>Irish Wolfhound (XL)</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -297,6 +300,12 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -436,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -530,6 +539,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,7 +857,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEDD088-87D2-CC46-807C-4EFA9FA05D81}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1039,15 +1049,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434540BB-F688-764D-A5B3-017F5AC390B4}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F42"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" s="30" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="30" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
@@ -1067,7 +1077,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>49</v>
       </c>
@@ -1087,7 +1097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>49</v>
       </c>
@@ -1107,7 +1117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>49</v>
       </c>
@@ -1127,7 +1137,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>49</v>
       </c>
@@ -1147,7 +1157,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>49</v>
       </c>
@@ -1167,7 +1177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>49</v>
       </c>
@@ -1187,7 +1197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>49</v>
       </c>
@@ -1207,7 +1217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>49</v>
       </c>
@@ -1227,7 +1237,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>49</v>
       </c>
@@ -1247,7 +1257,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>49</v>
       </c>
@@ -1267,7 +1277,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>49</v>
       </c>
@@ -1287,7 +1297,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>49</v>
       </c>
@@ -1307,7 +1317,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>49</v>
       </c>
@@ -1327,7 +1337,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="30" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>49</v>
       </c>
@@ -1346,8 +1356,9 @@
       <c r="F15" s="30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" s="30" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>49</v>
       </c>
@@ -1366,8 +1377,9 @@
       <c r="F16" s="30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7" s="30" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>49</v>
       </c>
@@ -1386,8 +1398,9 @@
       <c r="F17" s="30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>49</v>
       </c>
@@ -1407,7 +1420,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>49</v>
       </c>
@@ -1427,7 +1440,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>49</v>
       </c>
@@ -1447,7 +1460,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="30" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="30" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>49</v>
       </c>
@@ -1467,7 +1480,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>50</v>
       </c>
@@ -1487,7 +1500,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -1507,7 +1520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -1527,7 +1540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -1547,7 +1560,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -1567,7 +1580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
@@ -1587,7 +1600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
@@ -1607,7 +1620,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
@@ -1627,7 +1640,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>50</v>
       </c>
@@ -1647,7 +1660,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
@@ -1667,7 +1680,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
@@ -1877,7 +1890,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2164,7 +2177,7 @@
     </row>
     <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B21" s="28">
         <v>1.4829504259367201</v>
